--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H2">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I2">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J2">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>222.8245905832744</v>
+        <v>26.52458774992267</v>
       </c>
       <c r="R2">
-        <v>2005.421315249469</v>
+        <v>238.721289749304</v>
       </c>
       <c r="S2">
-        <v>0.1211476884021841</v>
+        <v>0.02416536047813527</v>
       </c>
       <c r="T2">
-        <v>0.1211476884021841</v>
+        <v>0.02416536047813527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H3">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I3">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J3">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>128.2384181491761</v>
+        <v>125.4659481481089</v>
       </c>
       <c r="R3">
-        <v>1154.145763342585</v>
+        <v>1129.19353333298</v>
       </c>
       <c r="S3">
-        <v>0.06972205303938084</v>
+        <v>0.1143063897284858</v>
       </c>
       <c r="T3">
-        <v>0.06972205303938084</v>
+        <v>0.1143063897284858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H4">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I4">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J4">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>138.4964849753666</v>
+        <v>135.5022391371124</v>
       </c>
       <c r="R4">
-        <v>1246.468364778299</v>
+        <v>1219.520152234012</v>
       </c>
       <c r="S4">
-        <v>0.07529926998933707</v>
+        <v>0.123450003642464</v>
       </c>
       <c r="T4">
-        <v>0.0752992699893371</v>
+        <v>0.1234500036424641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J5">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>533.8872142246473</v>
+        <v>64.95720432328133</v>
       </c>
       <c r="R5">
-        <v>4804.984928021826</v>
+        <v>584.614838909532</v>
       </c>
       <c r="S5">
-        <v>0.2902695869494963</v>
+        <v>0.05917959113722914</v>
       </c>
       <c r="T5">
-        <v>0.2902695869494962</v>
+        <v>0.05917959113722915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J6">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
         <v>307.2589593591211</v>
       </c>
       <c r="R6">
-        <v>2765.33063423209</v>
+        <v>2765.330634232089</v>
       </c>
       <c r="S6">
-        <v>0.1670538811258663</v>
+        <v>0.2799298365371022</v>
       </c>
       <c r="T6">
-        <v>0.1670538811258663</v>
+        <v>0.2799298365371022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J7">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>331.8372642348496</v>
+        <v>331.8372642348495</v>
       </c>
       <c r="R7">
-        <v>2986.535378113646</v>
+        <v>2986.535378113645</v>
       </c>
       <c r="S7">
-        <v>0.1804168803026822</v>
+        <v>0.3023220261109144</v>
       </c>
       <c r="T7">
-        <v>0.1804168803026821</v>
+        <v>0.3023220261109145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J8">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N8">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q8">
-        <v>80.442713613995</v>
+        <v>9.787336436089999</v>
       </c>
       <c r="R8">
-        <v>723.984422525955</v>
+        <v>88.08602792481</v>
       </c>
       <c r="S8">
-        <v>0.0437359663833526</v>
+        <v>0.008916802603259767</v>
       </c>
       <c r="T8">
-        <v>0.04373596638335261</v>
+        <v>0.00891680260325977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J9">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.261295</v>
       </c>
       <c r="O9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q9">
-        <v>46.29581644684167</v>
+        <v>46.29581644684166</v>
       </c>
       <c r="R9">
-        <v>416.662348021575</v>
+        <v>416.6623480215749</v>
       </c>
       <c r="S9">
-        <v>0.02517061124423166</v>
+        <v>0.04217803886775862</v>
       </c>
       <c r="T9">
-        <v>0.02517061124423166</v>
+        <v>0.04217803886775862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J10">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N10">
         <v>3.522173</v>
       </c>
       <c r="O10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q10">
-        <v>49.99911835697833</v>
+        <v>49.99911835697832</v>
       </c>
       <c r="R10">
-        <v>449.992065212805</v>
+        <v>449.9920652128049</v>
       </c>
       <c r="S10">
-        <v>0.02718406256346916</v>
+        <v>0.04555195089465073</v>
       </c>
       <c r="T10">
-        <v>0.02718406256346916</v>
+        <v>0.04555195089465074</v>
       </c>
     </row>
   </sheetData>
